--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190819.2539915235</v>
+        <v>184345.9678838043</v>
       </c>
     </row>
     <row r="7">
@@ -9167,16 +9167,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L17" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M17" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N17" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O17" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P17" t="n">
         <v>95.50771753390021</v>
@@ -9261,7 +9261,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9328,7 +9328,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M19" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N19" t="n">
         <v>62.89780050171086</v>
@@ -10352,16 +10352,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L32" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M32" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N32" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O32" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P32" t="n">
         <v>95.50771753390021</v>
@@ -10446,7 +10446,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10513,7 +10513,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M34" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N34" t="n">
         <v>62.89780050171086</v>
@@ -26317,16 +26317,16 @@
         <v>75255.18387201249</v>
       </c>
       <c r="D2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="E2" t="n">
-        <v>81666.69129627486</v>
+        <v>81666.69129627488</v>
       </c>
       <c r="F2" t="n">
         <v>81666.69129627486</v>
       </c>
       <c r="G2" t="n">
-        <v>81666.69129627486</v>
+        <v>81666.69129627485</v>
       </c>
       <c r="H2" t="n">
         <v>81666.69129627486</v>
@@ -26338,10 +26338,10 @@
         <v>81666.69129627486</v>
       </c>
       <c r="K2" t="n">
+        <v>81666.69129627486</v>
+      </c>
+      <c r="L2" t="n">
         <v>81666.69129627488</v>
-      </c>
-      <c r="L2" t="n">
-        <v>81666.69129627486</v>
       </c>
       <c r="M2" t="n">
         <v>81666.69129627486</v>
@@ -26350,10 +26350,10 @@
         <v>81666.69129627486</v>
       </c>
       <c r="O2" t="n">
-        <v>81666.69129627486</v>
+        <v>81666.69129627488</v>
       </c>
       <c r="P2" t="n">
-        <v>81666.69129627486</v>
+        <v>81666.69129627488</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41731.10116290394</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="C4" t="n">
-        <v>41731.10116290394</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="D4" t="n">
-        <v>41731.10116290394</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="E4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="F4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="G4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537998</v>
       </c>
       <c r="H4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="I4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="J4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="K4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="L4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="M4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="N4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="O4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
       <c r="P4" t="n">
-        <v>17445.5225022092</v>
+        <v>17977.21900537997</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-103.5172908914465</v>
+        <v>-1375.378340566072</v>
       </c>
       <c r="C6" t="n">
-        <v>-103.5172908914465</v>
+        <v>-1375.378340566072</v>
       </c>
       <c r="D6" t="n">
-        <v>-103.517290891461</v>
+        <v>-1375.378340566072</v>
       </c>
       <c r="E6" t="n">
-        <v>-129520.0230076192</v>
+        <v>-130051.7195107899</v>
       </c>
       <c r="F6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="G6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.2674597482</v>
       </c>
       <c r="H6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="I6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="J6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="K6" t="n">
-        <v>59102.963962919</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="L6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974823</v>
       </c>
       <c r="M6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="N6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974822</v>
       </c>
       <c r="O6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974823</v>
       </c>
       <c r="P6" t="n">
-        <v>59102.96396291898</v>
+        <v>58571.26745974823</v>
       </c>
     </row>
   </sheetData>
@@ -32239,7 +32239,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L17" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M17" t="n">
         <v>165.7299311340341</v>
@@ -32248,7 +32248,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P17" t="n">
         <v>135.7252782213693</v>
@@ -32263,7 +32263,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T17" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U17" t="n">
         <v>0.07550714794001816</v>
@@ -32333,7 +32333,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R18" t="n">
         <v>31.35420961992052</v>
@@ -32382,7 +32382,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H19" t="n">
         <v>3.764178316183975</v>
@@ -32400,7 +32400,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M19" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N19" t="n">
         <v>64.78774396352233</v>
@@ -32412,13 +32412,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R19" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S19" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T19" t="n">
         <v>1.808960949495364</v>
@@ -33424,7 +33424,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L32" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M32" t="n">
         <v>165.7299311340341</v>
@@ -33433,7 +33433,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O32" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P32" t="n">
         <v>135.7252782213693</v>
@@ -33448,7 +33448,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T32" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U32" t="n">
         <v>0.07550714794001816</v>
@@ -33518,7 +33518,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R33" t="n">
         <v>31.35420961992052</v>
@@ -33567,7 +33567,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H34" t="n">
         <v>3.764178316183975</v>
@@ -33585,7 +33585,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M34" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N34" t="n">
         <v>64.78774396352233</v>
@@ -33597,13 +33597,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R34" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S34" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T34" t="n">
         <v>1.808960949495364</v>
